--- a/col對應.xlsx
+++ b/col對應.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouchu\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4A149-E613-484C-90B2-7F45BA69C88A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCCF4F-49C6-47BC-94E8-2580881B070B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="31">
   <si>
     <t>日期(年-月-日)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,50 @@
   </si>
   <si>
     <t>賣出股數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上櫃股票每日收盤行情(不含定價)</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>trade_volumn</t>
+  </si>
+  <si>
+    <t>收盤價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開盤價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易股數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +302,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +401,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -488,6 +538,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,7 +695,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +709,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33359FB5-8199-4F7D-8592-4FA3F6D79C1B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.54296875" defaultRowHeight="17"/>
@@ -1067,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1084,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1119,6 +1201,108 @@
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/col對應.xlsx
+++ b/col對應.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouchu\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCCF4F-49C6-47BC-94E8-2580881B070B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486ACB8E-A690-4754-8D99-BF019BB21DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>日期(年-月-日)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,44 @@
   </si>
   <si>
     <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個股日本益比、殖利率及股價淨值比</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dividend_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/E_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiscal_year_quarter</t>
+  </si>
+  <si>
+    <t>殖利率(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本益比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>財報年/季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +733,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +759,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33359FB5-8199-4F7D-8592-4FA3F6D79C1B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.54296875" defaultRowHeight="17"/>
@@ -1305,6 +1346,108 @@
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/col對應.xlsx
+++ b/col對應.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouchu\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486ACB8E-A690-4754-8D99-BF019BB21DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C2280-1342-41E9-97C6-A9EDDA36E091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>日期(年-月-日)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,46 @@
   <si>
     <t>varchar(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily_deal_output</t>
+  </si>
+  <si>
+    <t>每日市場成交資訊</t>
+  </si>
+  <si>
+    <t>日期(年-D2:D37日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_volume</t>
+  </si>
+  <si>
+    <t>成交股數</t>
+  </si>
+  <si>
+    <t>trade_value</t>
+  </si>
+  <si>
+    <t>成交金額</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>成交筆數</t>
+  </si>
+  <si>
+    <t>taiex</t>
+  </si>
+  <si>
+    <t>發行量加權股價指數</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>漲跌點數</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33359FB5-8199-4F7D-8592-4FA3F6D79C1B}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.54296875" defaultRowHeight="17"/>
@@ -1448,6 +1488,108 @@
         <v>40</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/col對應.xlsx
+++ b/col對應.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouchu\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grand\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C2280-1342-41E9-97C6-A9EDDA36E091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011CE32-0913-4D2E-9F42-AA80086167A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表3" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>日期(年-月-日)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,22 @@
   </si>
   <si>
     <t>漲跌點數</t>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">high </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1170,16 +1186,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33359FB5-8199-4F7D-8592-4FA3F6D79C1B}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.54296875" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="19.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="32.26953125" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="3"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -1377,64 +1393,64 @@
         <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1444,14 +1460,14 @@
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1461,14 +1477,14 @@
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>30</v>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1479,47 +1495,47 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1530,13 +1546,13 @@
         <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1547,13 +1563,13 @@
         <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1564,13 +1580,13 @@
         <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1581,12 +1597,46 @@
         <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>29</v>
       </c>
     </row>
